--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>公共</t>
-  </si>
-  <si>
-    <t>路由</t>
   </si>
   <si>
     <t>游戏服1</t>
@@ -1063,7 +1060,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1155,10 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="9" spans="3:5">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -1168,9 +1162,6 @@
       <c r="E9" s="3">
         <f>20000+C9</f>
         <v>20003</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1188,7 +1179,7 @@
         <v>20004</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1206,7 +1197,7 @@
         <v>20005</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
